--- a/Models/Prospective_conso/data/Hypotheses_olefines_1D_QR.xlsx
+++ b/Models/Prospective_conso/data/Hypotheses_olefines_1D_QR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin.girard/Documents/Code/Etude/Energy-Alternatives-Planing/Models/Prospective_conso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9631CECE-C6D2-8445-9B68-A562B362E14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30FC84F-CBC1-FB4C-938A-32AB65D2E9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="500" windowWidth="20920" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1413,7 +1413,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C13"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Models/Prospective_conso/data/Hypotheses_olefines_1D_QR.xlsx
+++ b/Models/Prospective_conso/data/Hypotheses_olefines_1D_QR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin.girard/Documents/Code/Etude/Energy-Alternatives-Planing/Models/Prospective_conso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30FC84F-CBC1-FB4C-938A-32AB65D2E9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2565F4CB-2EB5-D542-AD22-F9F3519D6354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="500" windowWidth="20920" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="500" windowWidth="20920" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0D" sheetId="2" r:id="rId1"/>
@@ -333,9 +333,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,20 +368,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -493,9 +479,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -510,29 +496,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -845,7 +821,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -904,8 +880,7 @@
         <v>29</v>
       </c>
       <c r="B6">
-        <f>1/1000</f>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -918,7 +893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -973,7 +948,7 @@
         <f>(2270+1386+949+848+117+530+465)</f>
         <v>6565</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="18">
         <f>270*0.27777</f>
         <v>74.997900000000001</v>
       </c>
@@ -1006,7 +981,7 @@
       <c r="B3" s="8">
         <v>0</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="19">
         <f>6020*0.2777777777</f>
         <v>1672.222221754</v>
       </c>
@@ -1040,7 +1015,7 @@
       <c r="B4" s="8">
         <v>0</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="19">
         <f>6020*0.2777777777</f>
         <v>1672.222221754</v>
       </c>
@@ -1074,7 +1049,7 @@
       <c r="B5" s="8">
         <v>0</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="19">
         <f>1504*0.277777</f>
         <v>417.77660800000001</v>
       </c>
@@ -1107,7 +1082,7 @@
       <c r="B6" s="8">
         <v>0</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="19">
         <f>50.6+1863</f>
         <v>1913.6</v>
       </c>
@@ -1141,7 +1116,7 @@
       <c r="B7" s="8">
         <v>0</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="19">
         <f>C2+D2</f>
         <v>519.66444216000002</v>
       </c>
@@ -1173,7 +1148,7 @@
       <c r="B8" s="8">
         <v>0</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="19">
         <f>C3+D3</f>
         <v>5026.387949254</v>
       </c>
@@ -1206,7 +1181,7 @@
       <c r="B9" s="8">
         <v>0</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="19">
         <f>C4+D4</f>
         <v>5026.387949254</v>
       </c>
@@ -1239,7 +1214,7 @@
       <c r="B10" s="8">
         <v>0</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="19">
         <f>1504*0.277777+5099*1.38*0.277777</f>
         <v>2372.3878017399998</v>
       </c>
@@ -1272,7 +1247,7 @@
       <c r="B11" s="8">
         <v>0</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="19">
         <f>C6+D6</f>
         <v>4421.5929775999994</v>
       </c>
@@ -1305,7 +1280,7 @@
       <c r="B12" s="8">
         <v>0</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="19">
         <v>3995</v>
       </c>
       <c r="D12" s="7">
@@ -1336,7 +1311,7 @@
       <c r="B13" s="8">
         <v>0</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="19">
         <f>C12+2700*0.381</f>
         <v>5023.7</v>
       </c>
@@ -1369,7 +1344,7 @@
       <c r="B14" s="8">
         <v>0</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="20">
         <f>C12+2700*1.7</f>
         <v>8585</v>
       </c>
@@ -1399,7 +1374,7 @@
       <c r="B18" s="11"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D24" s="21"/>
+      <c r="D24" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1412,152 +1387,152 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC1441D-9165-1D43-8F74-DEBDF45B3E23}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="16">
         <v>2020</v>
       </c>
-      <c r="C2" s="17">
-        <v>60</v>
+      <c r="C2">
+        <v>0.06</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="16">
         <v>2020</v>
       </c>
-      <c r="C3" s="17">
-        <v>6</v>
+      <c r="C3">
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="16">
         <v>2020</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="16">
         <v>2020</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="16">
         <v>2020</v>
       </c>
-      <c r="C6" s="17">
-        <v>200</v>
+      <c r="C6">
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="16">
         <v>2020</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="16">
         <v>2030</v>
       </c>
-      <c r="C8" s="17">
-        <v>30</v>
+      <c r="C8">
+        <v>0.03</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="16">
         <v>2030</v>
       </c>
-      <c r="C9" s="17">
-        <v>6</v>
+      <c r="C9">
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="16">
         <v>2030</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="16">
         <v>2030</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="16">
         <v>2030</v>
       </c>
-      <c r="C12" s="17">
-        <v>60</v>
+      <c r="C12">
+        <v>0.06</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="16">
         <v>2030</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13">
         <v>0</v>
       </c>
     </row>
